--- a/Sensor_Model/Inputs/se_inputs.xlsx
+++ b/Sensor_Model/Inputs/se_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neilabh\Documents\GitHub\STADS_IITBSSP\Sensor_Model\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66246B8A-A3F0-4442-97BF-050D857A437F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5813136-5D7D-4CC1-B38A-4E83B8FC351B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,7 +909,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
